--- a/RAA.xlsx
+++ b/RAA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\GitHub\RAA-Live-Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirsten\Documents\GitHub\RAA-Live-Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="9570" windowHeight="9510"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9570" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Triangle" sheetId="23" r:id="rId1"/>
@@ -530,15 +530,15 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -591,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1998</v>
       </c>
@@ -634,18 +634,18 @@
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4">
-        <v>1.0049999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" s="5">
         <f>N2*P2</f>
-        <v>18928.169999999998</v>
+        <v>19022.34</v>
       </c>
       <c r="R2" s="9">
         <f>Q2-N2</f>
-        <v>94.169999999998254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>188.34000000000015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1999</v>
       </c>
@@ -690,14 +690,14 @@
       </c>
       <c r="P3" s="4">
         <f>P2*O3</f>
-        <v>1.0142626728110598</v>
+        <v>1.0193087557603686</v>
       </c>
       <c r="Q3" s="5">
         <f t="shared" ref="Q3:Q11" si="0">N3*P3</f>
-        <v>16942.243686635942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>17026.533456221197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2000</v>
       </c>
@@ -740,14 +740,14 @@
       </c>
       <c r="P4" s="4">
         <f t="shared" ref="P4:P11" si="1">P3*O4</f>
-        <v>1.0314407133058039</v>
+        <v>1.0365722591431463</v>
       </c>
       <c r="Q4" s="5">
         <f t="shared" si="0"/>
-        <v>24203.787778433994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>24324.204633053072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2001</v>
       </c>
@@ -794,14 +794,14 @@
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>1.0657500969534119</v>
+        <v>1.0710523362417377</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" si="0"/>
-        <v>28846.657874238001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>28990.173585055112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>2002</v>
       </c>
@@ -845,14 +845,14 @@
       </c>
       <c r="P6" s="4">
         <f t="shared" si="1"/>
-        <v>1.1104419413727777</v>
+        <v>1.1159665281457769</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" si="0"/>
-        <v>29071.37002513932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>29216.003706856438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>2003</v>
       </c>
@@ -894,14 +894,14 @@
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>1.2363492745342139</v>
+        <v>1.2425002659498074</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="0"/>
-        <v>19598.60869991636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>19696.114215836347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>2004</v>
       </c>
@@ -941,14 +941,14 @@
       </c>
       <c r="P8" s="4">
         <f t="shared" si="1"/>
-        <v>1.4485990826089534</v>
+        <v>1.4558060432189486</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="0"/>
-        <v>17838.049103246653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>17926.795616198131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>2005</v>
       </c>
@@ -986,14 +986,14 @@
       </c>
       <c r="P9" s="4">
         <f t="shared" si="1"/>
-        <v>1.8410073575392685</v>
+        <v>1.8501665981240414</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="0"/>
-        <v>24139.28847205489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>24259.384434602431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>2006</v>
       </c>
@@ -1029,14 +1029,14 @@
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
-        <v>2.9889173347925224</v>
+        <v>3.0037875702890031</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="0"/>
-        <v>16125.209021205659</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>16205.433941709172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>2007</v>
       </c>
@@ -1071,14 +1071,14 @@
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>8.9648350662362368</v>
+        <v>9.0094362357200009</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="0"/>
-        <v>18494.454741645357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>18586.466954290361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <f>SUM(C$2:C9)</f>
         <v>60078</v>
@@ -1090,7 +1090,7 @@
       <c r="N12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <f>SUM(B$2:B10)</f>
         <v>21829</v>
@@ -1108,10 +1108,10 @@
       </c>
       <c r="Q13" s="5">
         <f>SUM(Q2:Q12)</f>
-        <v>214187.8394025162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>215253.45054382225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>1.0092165898617511</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>12</v>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1998</v>
       </c>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1999</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2000</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2001</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2002</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2003</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2004</v>
       </c>
@@ -1414,7 +1414,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2005</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2006</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1466,7 +1466,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>1.0092165898617511</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>

--- a/RAA.xlsx
+++ b/RAA.xlsx
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1066,16 +1066,16 @@
         <v>2063</v>
       </c>
       <c r="O11" s="4">
-        <f>B15</f>
-        <v>2.9993586513353794</v>
+        <f>B29</f>
+        <v>8.2060992795413554</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>9.0094362357200009</v>
+        <v>24.649379016443866</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="0"/>
-        <v>18586.466954290361</v>
+        <v>50851.668910923698</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="Q13" s="5">
         <f>SUM(Q2:Q12)</f>
-        <v>215253.45054382225</v>
+        <v>247518.65250045559</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">

--- a/RAA.xlsx
+++ b/RAA.xlsx
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1066,16 +1066,16 @@
         <v>2063</v>
       </c>
       <c r="O11" s="4">
-        <f>B29</f>
-        <v>8.2060992795413554</v>
+        <f>B15</f>
+        <v>2.9993586513353794</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>24.649379016443866</v>
+        <v>9.0094362357200009</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="0"/>
-        <v>50851.668910923698</v>
+        <v>18586.466954290361</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="Q13" s="5">
         <f>SUM(Q2:Q12)</f>
-        <v>247518.65250045559</v>
+        <v>215253.45054382225</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
